--- a/xlsx/保时捷918_intext.xlsx
+++ b/xlsx/保时捷918_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="180">
   <si>
     <t>保时捷918</t>
   </si>
@@ -26,40 +26,40 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E6%99%82%E6%8D%B7</t>
   </si>
   <si>
-    <t>保時捷</t>
-  </si>
-  <si>
-    <t>政策_政策_混合動力車輛_保时捷918</t>
+    <t>保时捷</t>
+  </si>
+  <si>
+    <t>政策_政策_混合动力车辆_保时捷918</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>汽車設計</t>
+    <t>汽车设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E7%A8%AE%E9%A1%9E</t>
   </si>
   <si>
-    <t>汽車種類</t>
+    <t>汽车种类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%B4%9A%E8%B7%91%E8%BB%8A</t>
   </si>
   <si>
-    <t>超級跑車</t>
+    <t>超级跑车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BD%AE%E5%BE%8C%E9%A9%85</t>
   </si>
   <si>
-    <t>中置後驅</t>
+    <t>中置后驱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E8%BC%AA%E9%A9%85%E5%8B%95</t>
   </si>
   <si>
-    <t>四輪驅動</t>
+    <t>四轮驱动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E5%8A%A8%E6%9C%BA</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E9%80%B2%E6%B0%A3%E5%BC%95%E6%93%8E</t>
   </si>
   <si>
-    <t>自然進氣引擎</t>
+    <t>自然进气引擎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%98%E9%80%9F%E5%99%A8</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8B%B0%E9%9B%A2%E5%AD%90%E9%9B%BB%E6%B1%A0</t>
   </si>
   <si>
-    <t>鋰離子電池</t>
+    <t>锂离子电池</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%B4%E8%B7%9D</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E6%99%82%E6%8D%B7Carrera_GT</t>
   </si>
   <si>
-    <t>保時捷Carrera GT</t>
+    <t>保时捷Carrera GT</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%9B%BD%E9%99%85%E6%B1%BD%E8%BD%A6%E5%B1%95</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%91%E8%BB%8A</t>
   </si>
   <si>
-    <t>跑車</t>
+    <t>跑车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%85%A7%E7%93%A6%E8%BB%8A%E5%B1%95</t>
   </si>
   <si>
-    <t>日內瓦車展</t>
+    <t>日内瓦车展</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%92%E7%94%B5%E5%BC%8F%E6%B7%B7%E5%90%88%E5%8A%A8%E5%8A%9B%E6%B1%BD%E8%BD%A6</t>
@@ -143,19 +143,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E7%BA%96%E7%B6%AD</t>
   </si>
   <si>
-    <t>碳纖維</t>
+    <t>碳纤维</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8E%82</t>
   </si>
   <si>
-    <t>鎂</t>
+    <t>镁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8B%81</t>
   </si>
   <si>
-    <t>鋁</t>
+    <t>铝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%96%A4</t>
@@ -197,21 +197,18 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E9%80%9F%E5%BF%AB%E6%84%9F</t>
   </si>
   <si>
-    <t>極速快感</t>
+    <t>极速快感</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E9%80%9F%E5%BF%AB%E6%84%9F%EF%BC%9A%E8%B6%85%E7%86%B1%E5%8A%9B%E8%BF%BD%E7%B7%9D</t>
   </si>
   <si>
-    <t>極速快感：超熱力追緝</t>
+    <t>极速快感：超热力追缉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%91%E8%BD%A6</t>
   </si>
   <si>
-    <t>跑车</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%A6%E5%AF%9F</t>
   </si>
   <si>
@@ -233,19 +230,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%96%AF%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>福斯集團</t>
+    <t>福斯集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%96%AF%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>福斯汽車</t>
+    <t>福斯汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%BF%AA</t>
   </si>
   <si>
-    <t>奧迪</t>
+    <t>奥迪</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Audi_Sport_GmbH</t>
@@ -257,7 +254,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%88%A9</t>
   </si>
   <si>
-    <t>賓利</t>
+    <t>宾利</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Bugatti_Automobiles</t>
@@ -269,7 +266,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E5%AF%B6%E5%A0%85%E5%B0%BC</t>
   </si>
   <si>
-    <t>藍寶堅尼</t>
+    <t>蓝宝坚尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BA%9A%E7%89%B9</t>
@@ -311,19 +308,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E6%99%82%E6%8D%B7Boxster</t>
   </si>
   <si>
-    <t>保時捷Boxster</t>
+    <t>保时捷Boxster</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E6%99%82%E6%8D%B7Cayman</t>
   </si>
   <si>
-    <t>保時捷Cayman</t>
+    <t>保时捷Cayman</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E6%99%82%E6%8D%B7Panamera</t>
   </si>
   <si>
-    <t>保時捷Panamera</t>
+    <t>保时捷Panamera</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E6%97%B6%E6%8D%B7%E5%8D%A1%E5%AE%B4</t>
@@ -353,25 +350,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E6%99%82%E6%8D%B7993</t>
   </si>
   <si>
-    <t>保時捷993</t>
+    <t>保时捷993</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E6%99%82%E6%8D%B7996</t>
   </si>
   <si>
-    <t>保時捷996</t>
+    <t>保时捷996</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E6%99%82%E6%8D%B7997</t>
   </si>
   <si>
-    <t>保時捷997</t>
+    <t>保时捷997</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E6%99%82%E6%8D%B7911_GT1</t>
   </si>
   <si>
-    <t>保時捷911 GT1</t>
+    <t>保时捷911 GT1</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E6%97%B6%E6%8D%B7911_GT2</t>
@@ -437,7 +434,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E6%99%82%E6%8D%B7718</t>
   </si>
   <si>
-    <t>保時捷718</t>
+    <t>保时捷718</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E6%97%B6%E6%8D%B7934</t>
@@ -455,19 +452,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E8%BF%AA%E5%8D%97%C2%B7%E4%BF%9D%E6%99%82%E6%8D%B7</t>
   </si>
   <si>
-    <t>費迪南·保時捷</t>
+    <t>费迪南·保时捷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E8%BF%AA%E5%8D%97%E5%BE%B7%C2%B7%E5%AE%89%E6%9D%B1%C2%B7%E6%81%A9%E6%96%AF%E7%89%B9%C2%B7%E4%BF%9D%E6%99%82%E6%8D%B7</t>
   </si>
   <si>
-    <t>費迪南德·安東·恩斯特·保時捷</t>
+    <t>费迪南德·安东·恩斯特·保时捷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E8%BF%AA%E5%8D%97%C2%B7%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%C2%B7%E4%BF%9D%E6%99%82%E6%8D%B7</t>
   </si>
   <si>
-    <t>費迪南·亞歷山大·保時捷</t>
+    <t>费迪南·亚历山大·保时捷</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ferdinand_Pi%C3%ABch</t>
@@ -533,7 +530,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E9%9B%A2%E5%90%88%E8%AE%8A%E9%80%9F%E7%AE%B1</t>
   </si>
   <si>
-    <t>雙離合變速箱</t>
+    <t>双离合变速箱</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/VarioCam</t>
@@ -545,7 +542,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3-%E9%99%B6%E7%93%B7%E5%88%B6%E5%8B%95%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>碳-陶瓷制動系統</t>
+    <t>碳-陶瓷制动系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Porsche_Club_of_America</t>
@@ -1885,7 +1882,7 @@
         <v>63</v>
       </c>
       <c r="F34" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1911,10 +1908,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" t="s">
         <v>65</v>
-      </c>
-      <c r="F35" t="s">
-        <v>66</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1940,10 +1937,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" t="s">
         <v>67</v>
-      </c>
-      <c r="F36" t="s">
-        <v>68</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1969,10 +1966,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" t="s">
         <v>69</v>
-      </c>
-      <c r="F37" t="s">
-        <v>70</v>
       </c>
       <c r="G37" t="n">
         <v>3</v>
@@ -1998,10 +1995,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" t="s">
         <v>71</v>
-      </c>
-      <c r="F38" t="s">
-        <v>72</v>
       </c>
       <c r="G38" t="n">
         <v>3</v>
@@ -2027,10 +2024,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" t="s">
         <v>73</v>
-      </c>
-      <c r="F39" t="s">
-        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2056,10 +2053,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s">
         <v>75</v>
-      </c>
-      <c r="F40" t="s">
-        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -2085,10 +2082,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" t="s">
         <v>77</v>
-      </c>
-      <c r="F41" t="s">
-        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2114,10 +2111,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" t="s">
         <v>79</v>
-      </c>
-      <c r="F42" t="s">
-        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2143,10 +2140,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" t="s">
         <v>81</v>
-      </c>
-      <c r="F43" t="s">
-        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2172,10 +2169,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" t="s">
         <v>83</v>
-      </c>
-      <c r="F44" t="s">
-        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2201,10 +2198,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" t="s">
         <v>85</v>
-      </c>
-      <c r="F45" t="s">
-        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2230,10 +2227,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" t="s">
         <v>87</v>
-      </c>
-      <c r="F46" t="s">
-        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2259,10 +2256,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" t="s">
         <v>89</v>
-      </c>
-      <c r="F47" t="s">
-        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2288,10 +2285,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" t="s">
         <v>91</v>
-      </c>
-      <c r="F48" t="s">
-        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2317,10 +2314,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" t="s">
         <v>93</v>
-      </c>
-      <c r="F49" t="s">
-        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2346,10 +2343,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" t="s">
         <v>95</v>
-      </c>
-      <c r="F50" t="s">
-        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>7</v>
@@ -2375,10 +2372,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" t="s">
         <v>97</v>
-      </c>
-      <c r="F51" t="s">
-        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2404,10 +2401,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" t="s">
         <v>99</v>
-      </c>
-      <c r="F52" t="s">
-        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2433,10 +2430,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" t="s">
         <v>101</v>
-      </c>
-      <c r="F53" t="s">
-        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2462,10 +2459,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" t="s">
         <v>103</v>
-      </c>
-      <c r="F54" t="s">
-        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2491,10 +2488,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" t="s">
         <v>105</v>
-      </c>
-      <c r="F55" t="s">
-        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -2520,10 +2517,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" t="s">
         <v>107</v>
-      </c>
-      <c r="F56" t="s">
-        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2549,10 +2546,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" t="s">
         <v>109</v>
-      </c>
-      <c r="F57" t="s">
-        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2578,10 +2575,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" t="s">
         <v>111</v>
-      </c>
-      <c r="F58" t="s">
-        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2607,10 +2604,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
         <v>113</v>
-      </c>
-      <c r="F59" t="s">
-        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2636,10 +2633,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" t="s">
         <v>115</v>
-      </c>
-      <c r="F60" t="s">
-        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2665,10 +2662,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" t="s">
         <v>117</v>
-      </c>
-      <c r="F61" t="s">
-        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -2694,10 +2691,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
         <v>119</v>
-      </c>
-      <c r="F62" t="s">
-        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -2752,10 +2749,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>120</v>
+      </c>
+      <c r="F64" t="s">
         <v>121</v>
-      </c>
-      <c r="F64" t="s">
-        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2810,10 +2807,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>122</v>
+      </c>
+      <c r="F66" t="s">
         <v>123</v>
-      </c>
-      <c r="F66" t="s">
-        <v>124</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -2839,10 +2836,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>124</v>
+      </c>
+      <c r="F67" t="s">
         <v>125</v>
-      </c>
-      <c r="F67" t="s">
-        <v>126</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2868,10 +2865,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>126</v>
+      </c>
+      <c r="F68" t="s">
         <v>127</v>
-      </c>
-      <c r="F68" t="s">
-        <v>128</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2897,10 +2894,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>128</v>
+      </c>
+      <c r="F69" t="s">
         <v>129</v>
-      </c>
-      <c r="F69" t="s">
-        <v>130</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -2926,10 +2923,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>130</v>
+      </c>
+      <c r="F70" t="s">
         <v>131</v>
-      </c>
-      <c r="F70" t="s">
-        <v>132</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -2955,10 +2952,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>132</v>
+      </c>
+      <c r="F71" t="s">
         <v>133</v>
-      </c>
-      <c r="F71" t="s">
-        <v>134</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -2984,10 +2981,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>134</v>
+      </c>
+      <c r="F72" t="s">
         <v>135</v>
-      </c>
-      <c r="F72" t="s">
-        <v>136</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -3013,10 +3010,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>136</v>
+      </c>
+      <c r="F73" t="s">
         <v>137</v>
-      </c>
-      <c r="F73" t="s">
-        <v>138</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3042,10 +3039,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>138</v>
+      </c>
+      <c r="F74" t="s">
         <v>139</v>
-      </c>
-      <c r="F74" t="s">
-        <v>140</v>
       </c>
       <c r="G74" t="n">
         <v>6</v>
@@ -3071,10 +3068,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>116</v>
+      </c>
+      <c r="F75" t="s">
         <v>117</v>
-      </c>
-      <c r="F75" t="s">
-        <v>118</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3100,10 +3097,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>118</v>
+      </c>
+      <c r="F76" t="s">
         <v>119</v>
-      </c>
-      <c r="F76" t="s">
-        <v>120</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3158,10 +3155,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>140</v>
+      </c>
+      <c r="F78" t="s">
         <v>141</v>
-      </c>
-      <c r="F78" t="s">
-        <v>142</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3187,10 +3184,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>142</v>
+      </c>
+      <c r="F79" t="s">
         <v>143</v>
-      </c>
-      <c r="F79" t="s">
-        <v>144</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3216,10 +3213,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>144</v>
+      </c>
+      <c r="F80" t="s">
         <v>145</v>
-      </c>
-      <c r="F80" t="s">
-        <v>146</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3245,10 +3242,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>146</v>
+      </c>
+      <c r="F81" t="s">
         <v>147</v>
-      </c>
-      <c r="F81" t="s">
-        <v>148</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3274,10 +3271,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>148</v>
+      </c>
+      <c r="F82" t="s">
         <v>149</v>
-      </c>
-      <c r="F82" t="s">
-        <v>150</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3303,10 +3300,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>150</v>
+      </c>
+      <c r="F83" t="s">
         <v>151</v>
-      </c>
-      <c r="F83" t="s">
-        <v>152</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3332,10 +3329,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>152</v>
+      </c>
+      <c r="F84" t="s">
         <v>153</v>
-      </c>
-      <c r="F84" t="s">
-        <v>154</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3361,10 +3358,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>154</v>
+      </c>
+      <c r="F85" t="s">
         <v>155</v>
-      </c>
-      <c r="F85" t="s">
-        <v>156</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -3390,10 +3387,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>156</v>
+      </c>
+      <c r="F86" t="s">
         <v>157</v>
-      </c>
-      <c r="F86" t="s">
-        <v>158</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -3419,10 +3416,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>158</v>
+      </c>
+      <c r="F87" t="s">
         <v>159</v>
-      </c>
-      <c r="F87" t="s">
-        <v>160</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -3448,10 +3445,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>160</v>
+      </c>
+      <c r="F88" t="s">
         <v>161</v>
-      </c>
-      <c r="F88" t="s">
-        <v>162</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -3477,10 +3474,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>162</v>
+      </c>
+      <c r="F89" t="s">
         <v>163</v>
-      </c>
-      <c r="F89" t="s">
-        <v>164</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -3506,10 +3503,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>164</v>
+      </c>
+      <c r="F90" t="s">
         <v>165</v>
-      </c>
-      <c r="F90" t="s">
-        <v>166</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3535,10 +3532,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>166</v>
+      </c>
+      <c r="F91" t="s">
         <v>167</v>
-      </c>
-      <c r="F91" t="s">
-        <v>168</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3564,10 +3561,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>168</v>
+      </c>
+      <c r="F92" t="s">
         <v>169</v>
-      </c>
-      <c r="F92" t="s">
-        <v>170</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3593,10 +3590,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>170</v>
+      </c>
+      <c r="F93" t="s">
         <v>171</v>
-      </c>
-      <c r="F93" t="s">
-        <v>172</v>
       </c>
       <c r="G93" t="n">
         <v>3</v>
@@ -3622,10 +3619,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>172</v>
+      </c>
+      <c r="F94" t="s">
         <v>173</v>
-      </c>
-      <c r="F94" t="s">
-        <v>174</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3651,10 +3648,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>174</v>
+      </c>
+      <c r="F95" t="s">
         <v>175</v>
-      </c>
-      <c r="F95" t="s">
-        <v>176</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3680,10 +3677,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>176</v>
+      </c>
+      <c r="F96" t="s">
         <v>177</v>
-      </c>
-      <c r="F96" t="s">
-        <v>178</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3709,10 +3706,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>178</v>
+      </c>
+      <c r="F97" t="s">
         <v>179</v>
-      </c>
-      <c r="F97" t="s">
-        <v>180</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
